--- a/output/StructureDefinition-BrewedBeverage.xlsx
+++ b/output/StructureDefinition-BrewedBeverage.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$86</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2813" uniqueCount="149">
   <si>
     <t>Path</t>
   </si>
@@ -247,6 +247,9 @@
     <t>Parameters.parameter</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t xml:space="preserve">BackboneElement
 </t>
   </si>
@@ -455,6 +458,15 @@
   </si>
   <si>
     <t>http://example.org/ValueSet/HBSpiceVS</t>
+  </si>
+  <si>
+    <t>drinkSize</t>
+  </si>
+  <si>
+    <t>Size of Drink requested</t>
+  </si>
+  <si>
+    <t>http://example.org/ValueSet/HBDrinkSizeVS</t>
   </si>
   <si>
     <t>decaffeinated</t>
@@ -615,7 +627,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK78"/>
+  <dimension ref="A1:AK86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1309,7 +1321,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>40</v>
@@ -1324,13 +1336,13 @@
         <v>47</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1369,16 +1381,16 @@
         <v>38</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>74</v>
@@ -1393,7 +1405,7 @@
         <v>38</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>38</v>
@@ -1404,7 +1416,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1430,10 +1442,10 @@
         <v>48</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1484,7 +1496,7 @@
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>39</v>
@@ -1507,11 +1519,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1530,16 +1542,16 @@
         <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1589,7 +1601,7 @@
         <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>39</v>
@@ -1601,7 +1613,7 @@
         <v>38</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>38</v>
@@ -1612,11 +1624,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -1635,19 +1647,19 @@
         <v>47</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>38</v>
@@ -1696,7 +1708,7 @@
         <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>39</v>
@@ -1708,18 +1720,18 @@
         <v>38</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1745,10 +1757,10 @@
         <v>48</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1799,7 +1811,7 @@
         <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>46</v>
@@ -1822,7 +1834,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1845,13 +1857,13 @@
         <v>47</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1902,7 +1914,7 @@
         <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>39</v>
@@ -1911,7 +1923,7 @@
         <v>46</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>58</v>
@@ -1925,7 +1937,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1948,16 +1960,16 @@
         <v>47</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2007,16 +2019,16 @@
         <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH13" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
@@ -2030,7 +2042,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2056,13 +2068,13 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2112,7 +2124,7 @@
         <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>39</v>
@@ -2138,7 +2150,7 @@
         <v>74</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>38</v>
@@ -2160,13 +2172,13 @@
         <v>47</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2229,7 +2241,7 @@
         <v>38</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>38</v>
@@ -2240,7 +2252,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2266,10 +2278,10 @@
         <v>48</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2320,7 +2332,7 @@
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>39</v>
@@ -2343,11 +2355,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2366,16 +2378,16 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2425,7 +2437,7 @@
         <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>39</v>
@@ -2437,7 +2449,7 @@
         <v>38</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>38</v>
@@ -2448,11 +2460,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -2471,19 +2483,19 @@
         <v>47</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>38</v>
@@ -2532,7 +2544,7 @@
         <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>39</v>
@@ -2544,18 +2556,18 @@
         <v>38</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2581,13 +2593,13 @@
         <v>48</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -2595,7 +2607,7 @@
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>38</v>
@@ -2637,7 +2649,7 @@
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>46</v>
@@ -2660,7 +2672,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2683,13 +2695,13 @@
         <v>47</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2740,7 +2752,7 @@
         <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
@@ -2749,7 +2761,7 @@
         <v>46</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>58</v>
@@ -2763,7 +2775,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2786,16 +2798,16 @@
         <v>47</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -2845,16 +2857,16 @@
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH21" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
@@ -2868,7 +2880,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2894,13 +2906,13 @@
         <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -2950,7 +2962,7 @@
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>39</v>
@@ -2976,7 +2988,7 @@
         <v>74</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>38</v>
@@ -2998,13 +3010,13 @@
         <v>47</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3067,7 +3079,7 @@
         <v>38</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>38</v>
@@ -3078,7 +3090,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3104,10 +3116,10 @@
         <v>48</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3158,7 +3170,7 @@
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
@@ -3181,11 +3193,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3204,16 +3216,16 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3263,7 +3275,7 @@
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3275,7 +3287,7 @@
         <v>38</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>38</v>
@@ -3286,11 +3298,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -3309,19 +3321,19 @@
         <v>47</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>38</v>
@@ -3370,7 +3382,7 @@
         <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -3382,18 +3394,18 @@
         <v>38</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3419,10 +3431,10 @@
         <v>48</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3431,7 +3443,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>38</v>
@@ -3473,7 +3485,7 @@
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>46</v>
@@ -3496,7 +3508,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3522,10 +3534,10 @@
         <v>66</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3552,11 +3564,11 @@
         <v>38</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>38</v>
@@ -3574,7 +3586,7 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
@@ -3583,7 +3595,7 @@
         <v>46</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>58</v>
@@ -3597,7 +3609,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3620,16 +3632,16 @@
         <v>47</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -3679,16 +3691,16 @@
         <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH29" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
@@ -3702,7 +3714,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3728,13 +3740,13 @@
         <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -3784,7 +3796,7 @@
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -3810,7 +3822,7 @@
         <v>74</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>38</v>
@@ -3832,13 +3844,13 @@
         <v>47</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3901,7 +3913,7 @@
         <v>38</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>38</v>
@@ -3912,7 +3924,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -3938,10 +3950,10 @@
         <v>48</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -3992,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>39</v>
@@ -4015,11 +4027,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4038,16 +4050,16 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4097,7 +4109,7 @@
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>39</v>
@@ -4109,7 +4121,7 @@
         <v>38</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>38</v>
@@ -4120,11 +4132,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4143,19 +4155,19 @@
         <v>47</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>38</v>
@@ -4204,7 +4216,7 @@
         <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>39</v>
@@ -4216,18 +4228,18 @@
         <v>38</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4253,10 +4265,10 @@
         <v>48</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4265,7 +4277,7 @@
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>38</v>
@@ -4307,7 +4319,7 @@
         <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>46</v>
@@ -4330,7 +4342,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4356,10 +4368,10 @@
         <v>66</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4386,11 +4398,11 @@
         <v>38</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>38</v>
@@ -4408,7 +4420,7 @@
         <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>39</v>
@@ -4417,7 +4429,7 @@
         <v>46</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>58</v>
@@ -4431,7 +4443,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4454,16 +4466,16 @@
         <v>47</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -4513,16 +4525,16 @@
         <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH37" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>38</v>
@@ -4536,7 +4548,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4562,13 +4574,13 @@
         <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -4618,7 +4630,7 @@
         <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>39</v>
@@ -4644,7 +4656,7 @@
         <v>74</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>38</v>
@@ -4666,13 +4678,13 @@
         <v>47</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4735,7 +4747,7 @@
         <v>38</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>38</v>
@@ -4746,7 +4758,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -4772,10 +4784,10 @@
         <v>48</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -4826,7 +4838,7 @@
         <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>39</v>
@@ -4849,11 +4861,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -4872,16 +4884,16 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -4931,7 +4943,7 @@
         <v>38</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>39</v>
@@ -4943,7 +4955,7 @@
         <v>38</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>38</v>
@@ -4954,11 +4966,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -4977,19 +4989,19 @@
         <v>47</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>38</v>
@@ -5038,7 +5050,7 @@
         <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>39</v>
@@ -5050,18 +5062,18 @@
         <v>38</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5087,10 +5099,10 @@
         <v>48</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5099,7 +5111,7 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>38</v>
@@ -5141,7 +5153,7 @@
         <v>38</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>46</v>
@@ -5164,7 +5176,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5190,10 +5202,10 @@
         <v>66</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5220,11 +5232,11 @@
         <v>38</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>38</v>
@@ -5242,7 +5254,7 @@
         <v>38</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>39</v>
@@ -5251,7 +5263,7 @@
         <v>46</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>58</v>
@@ -5265,7 +5277,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5288,16 +5300,16 @@
         <v>47</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -5347,16 +5359,16 @@
         <v>38</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH45" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>38</v>
@@ -5370,7 +5382,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5396,13 +5408,13 @@
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -5452,7 +5464,7 @@
         <v>38</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>39</v>
@@ -5478,7 +5490,7 @@
         <v>74</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>38</v>
@@ -5500,13 +5512,13 @@
         <v>47</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5569,7 +5581,7 @@
         <v>38</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>38</v>
@@ -5580,7 +5592,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -5606,10 +5618,10 @@
         <v>48</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -5660,7 +5672,7 @@
         <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>39</v>
@@ -5683,11 +5695,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -5706,16 +5718,16 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -5765,7 +5777,7 @@
         <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>39</v>
@@ -5777,7 +5789,7 @@
         <v>38</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>38</v>
@@ -5788,11 +5800,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -5811,19 +5823,19 @@
         <v>47</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>38</v>
@@ -5872,7 +5884,7 @@
         <v>38</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>39</v>
@@ -5884,18 +5896,18 @@
         <v>38</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -5921,10 +5933,10 @@
         <v>48</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -5933,7 +5945,7 @@
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>38</v>
@@ -5975,7 +5987,7 @@
         <v>38</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>46</v>
@@ -5998,7 +6010,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6024,10 +6036,10 @@
         <v>66</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6054,11 +6066,11 @@
         <v>38</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>38</v>
@@ -6076,7 +6088,7 @@
         <v>38</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>39</v>
@@ -6085,7 +6097,7 @@
         <v>46</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>58</v>
@@ -6099,7 +6111,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6122,16 +6134,16 @@
         <v>47</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -6181,16 +6193,16 @@
         <v>38</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH53" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>38</v>
@@ -6204,7 +6216,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6230,13 +6242,13 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -6286,7 +6298,7 @@
         <v>38</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>39</v>
@@ -6312,7 +6324,7 @@
         <v>74</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>38</v>
@@ -6334,13 +6346,13 @@
         <v>47</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -6403,7 +6415,7 @@
         <v>38</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>38</v>
@@ -6414,7 +6426,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -6440,10 +6452,10 @@
         <v>48</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -6494,7 +6506,7 @@
         <v>38</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>39</v>
@@ -6517,11 +6529,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -6540,16 +6552,16 @@
         <v>38</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -6599,7 +6611,7 @@
         <v>38</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>39</v>
@@ -6611,7 +6623,7 @@
         <v>38</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>38</v>
@@ -6622,11 +6634,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -6645,19 +6657,19 @@
         <v>47</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>38</v>
@@ -6706,7 +6718,7 @@
         <v>38</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>39</v>
@@ -6718,18 +6730,18 @@
         <v>38</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -6755,10 +6767,10 @@
         <v>48</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -6767,7 +6779,7 @@
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>38</v>
@@ -6809,7 +6821,7 @@
         <v>38</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>46</v>
@@ -6832,7 +6844,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -6858,10 +6870,10 @@
         <v>66</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -6888,11 +6900,11 @@
         <v>38</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>38</v>
@@ -6910,7 +6922,7 @@
         <v>38</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>39</v>
@@ -6919,7 +6931,7 @@
         <v>46</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>58</v>
@@ -6933,7 +6945,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -6956,16 +6968,16 @@
         <v>47</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -7015,16 +7027,16 @@
         <v>38</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH61" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>38</v>
@@ -7038,7 +7050,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7064,13 +7076,13 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -7120,7 +7132,7 @@
         <v>38</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>39</v>
@@ -7146,7 +7158,7 @@
         <v>74</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>38</v>
@@ -7168,13 +7180,13 @@
         <v>47</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -7237,7 +7249,7 @@
         <v>38</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>38</v>
@@ -7248,7 +7260,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -7274,10 +7286,10 @@
         <v>48</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -7328,7 +7340,7 @@
         <v>38</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>39</v>
@@ -7351,11 +7363,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -7374,16 +7386,16 @@
         <v>38</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -7433,7 +7445,7 @@
         <v>38</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>39</v>
@@ -7445,7 +7457,7 @@
         <v>38</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>38</v>
@@ -7456,11 +7468,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -7479,19 +7491,19 @@
         <v>47</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>38</v>
@@ -7540,7 +7552,7 @@
         <v>38</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>39</v>
@@ -7552,18 +7564,18 @@
         <v>38</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -7589,10 +7601,10 @@
         <v>48</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -7601,7 +7613,7 @@
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>38</v>
@@ -7643,7 +7655,7 @@
         <v>38</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>46</v>
@@ -7666,7 +7678,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -7692,10 +7704,10 @@
         <v>66</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -7722,11 +7734,11 @@
         <v>38</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>38</v>
@@ -7744,7 +7756,7 @@
         <v>38</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>39</v>
@@ -7753,7 +7765,7 @@
         <v>46</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>58</v>
@@ -7767,7 +7779,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -7790,16 +7802,16 @@
         <v>47</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -7849,16 +7861,16 @@
         <v>38</v>
       </c>
       <c r="AE69" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH69" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>38</v>
@@ -7872,7 +7884,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -7898,13 +7910,13 @@
         <v>38</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -7954,7 +7966,7 @@
         <v>38</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>39</v>
@@ -7980,14 +7992,14 @@
         <v>74</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>46</v>
@@ -8002,13 +8014,13 @@
         <v>47</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -8071,7 +8083,7 @@
         <v>38</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>38</v>
@@ -8082,7 +8094,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8108,10 +8120,10 @@
         <v>48</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -8162,7 +8174,7 @@
         <v>38</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>39</v>
@@ -8185,11 +8197,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -8208,16 +8220,16 @@
         <v>38</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -8267,7 +8279,7 @@
         <v>38</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>39</v>
@@ -8279,7 +8291,7 @@
         <v>38</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>38</v>
@@ -8290,11 +8302,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -8313,19 +8325,19 @@
         <v>47</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>38</v>
@@ -8374,7 +8386,7 @@
         <v>38</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>39</v>
@@ -8386,18 +8398,18 @@
         <v>38</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -8423,10 +8435,10 @@
         <v>48</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -8435,7 +8447,7 @@
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R75" t="s" s="2">
         <v>38</v>
@@ -8477,7 +8489,7 @@
         <v>38</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>46</v>
@@ -8500,7 +8512,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -8526,10 +8538,10 @@
         <v>66</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -8556,7 +8568,7 @@
         <v>38</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="X76" s="2"/>
       <c r="Y76" t="s" s="2">
@@ -8578,7 +8590,7 @@
         <v>38</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>39</v>
@@ -8587,7 +8599,7 @@
         <v>46</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>58</v>
@@ -8601,7 +8613,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -8624,16 +8636,16 @@
         <v>47</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -8683,16 +8695,16 @@
         <v>38</v>
       </c>
       <c r="AE77" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH77" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>38</v>
@@ -8706,7 +8718,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -8732,13 +8744,13 @@
         <v>38</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -8788,7 +8800,7 @@
         <v>38</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>39</v>
@@ -8809,8 +8821,842 @@
         <v>38</v>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="X84" s="2"/>
+      <c r="Y84" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AK78">
+  <autoFilter ref="A1:AK86">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8820,7 +9666,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI77">
+  <conditionalFormatting sqref="A2:AI85">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
